--- a/SSTPA/modules/params/Datos.xlsx
+++ b/SSTPA/modules/params/Datos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateo\OneDrive\Escritorio\Universidad\2020-2\IPRE\git\con 6 equipos\ANFP-Calendar-Opt\SSTPA\modules\params\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diego/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CFBC58-3BBD-49CC-8416-E29AF73D976A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFA150F9-7306-3A49-9445-626CB321EA42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E5C0626B-D4EE-49A7-B33E-FD013B335F69}"/>
+    <workbookView xWindow="5140" yWindow="1880" windowWidth="18140" windowHeight="13500" xr2:uid="{E5C0626B-D4EE-49A7-B33E-FD013B335F69}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipos" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="66">
   <si>
     <t>EQUIPO</t>
   </si>
@@ -187,6 +187,9 @@
     <t>3 : 1</t>
   </si>
   <si>
+    <t>4 : 3</t>
+  </si>
+  <si>
     <t>1 : 3</t>
   </si>
   <si>
@@ -208,50 +211,33 @@
     <t>1 : 4</t>
   </si>
   <si>
+    <t>5 : 4</t>
+  </si>
+  <si>
     <t>2 : 5</t>
   </si>
   <si>
     <t>0 : 1</t>
   </si>
   <si>
+    <t>5 : 1</t>
+  </si>
+  <si>
+    <t>0 : 4</t>
+  </si>
+  <si>
     <t>4 : 5</t>
   </si>
   <si>
-    <t>3 : 0</t>
-  </si>
-  <si>
-    <t>3 : 4</t>
-  </si>
-  <si>
-    <t>4 : 0</t>
-  </si>
-  <si>
-    <t>4 : 4</t>
-  </si>
-  <si>
-    <t>5 : 5</t>
-  </si>
-  <si>
-    <t>2 : 1</t>
-  </si>
-  <si>
-    <t>0 : 0</t>
+    <t>5 : 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -279,15 +265,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -306,7 +289,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -606,17 +589,17 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -630,7 +613,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -641,13 +624,13 @@
         <v>40</v>
       </c>
       <c r="D2" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -658,13 +641,13 @@
         <v>43</v>
       </c>
       <c r="D3" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -681,7 +664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -698,7 +681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -709,13 +692,13 @@
         <v>41</v>
       </c>
       <c r="D6" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -725,50 +708,50 @@
       <c r="C7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="3">
-        <v>0</v>
+      <c r="D7" s="1">
+        <v>4</v>
       </c>
       <c r="E7" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
       <c r="E17" s="1"/>
     </row>
@@ -782,13 +765,13 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -805,12 +788,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -821,10 +804,10 @@
         <v>42</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -838,7 +821,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -849,16 +832,16 @@
         <v>40</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>9</v>
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -869,10 +852,10 @@
         <v>43</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -883,10 +866,10 @@
         <v>44</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -897,16 +880,16 @@
         <v>39</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>7</v>
       </c>
@@ -917,10 +900,10 @@
         <v>41</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>8</v>
       </c>
@@ -931,10 +914,10 @@
         <v>40</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>9</v>
       </c>
@@ -948,13 +931,13 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>7</v>
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>10</v>
       </c>
@@ -965,10 +948,10 @@
         <v>42</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>11</v>
       </c>
@@ -982,7 +965,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>12</v>
       </c>
@@ -996,13 +979,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>6</v>
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>13</v>
       </c>
@@ -1013,10 +996,10 @@
         <v>44</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>14</v>
       </c>
@@ -1030,7 +1013,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>15</v>
       </c>
@@ -1041,16 +1024,16 @@
         <v>40</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>5</v>
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>16</v>
       </c>
@@ -1061,10 +1044,10 @@
         <v>43</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>17</v>
       </c>
@@ -1075,10 +1058,10 @@
         <v>44</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>18</v>
       </c>
@@ -1089,16 +1072,16 @@
         <v>39</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>4</v>
       </c>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>19</v>
       </c>
@@ -1109,10 +1092,10 @@
         <v>40</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>20</v>
       </c>
@@ -1123,10 +1106,10 @@
         <v>42</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>21</v>
       </c>
@@ -1137,16 +1120,16 @@
         <v>41</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3</v>
       </c>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>22</v>
       </c>
@@ -1157,10 +1140,10 @@
         <v>39</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>23</v>
       </c>
@@ -1171,10 +1154,10 @@
         <v>44</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>24</v>
       </c>
@@ -1185,16 +1168,16 @@
         <v>41</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2</v>
       </c>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>25</v>
       </c>
@@ -1208,7 +1191,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>26</v>
       </c>
@@ -1219,10 +1202,10 @@
         <v>43</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>27</v>
       </c>
@@ -1233,16 +1216,16 @@
         <v>44</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1</v>
       </c>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>28</v>
       </c>
@@ -1256,7 +1239,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>29</v>
       </c>
@@ -1267,10 +1250,10 @@
         <v>41</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>30</v>
       </c>
@@ -1281,11 +1264,10 @@
         <v>39</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>